--- a/doc/02_外部設計/02_DB定義書_国士無双.xlsx
+++ b/doc/02_外部設計/02_DB定義書_国士無双.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/miyashita-ryusuke-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="988" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6B19A9-EF24-45E2-9557-ED32E07FC6E1}"/>
+  <xr:revisionPtr revIDLastSave="1016" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FC879F-EC69-426F-AA72-E063AC6FE73C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -5126,7 +5126,1454 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D6E869-91C4-4674-B10F-74CB7FE8747F}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table history_details (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>wind int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>game int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>number int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>seat_wind int ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>point int ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>han int ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>hu int ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>result int ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>title int ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L23" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v>created_at datetime (　),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>updated_at datetime (　)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" t="e">
+        <f>C25&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368EE85C-D4CE-4CEB-B59A-93B45A41BFE3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table hands (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">tile int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>game_num int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>dispose_num int ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>created_at datetime (　),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>updated_at datetime (　)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F84F9-75F5-4644-8D66-EF2072BA8D9D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -5179,7 +6626,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5191,7 +6638,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -5231,7 +6678,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table history_details (</v>
+        <v>create table doras (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5251,16 +6698,14 @@
       <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -5290,1451 +6735,6 @@
         <v>user_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>game int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v>number int ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>seat_wind int ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>point int ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>han int ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>hu int ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>result int ,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="L22" t="str">
-        <f t="shared" ref="L22:L23" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v>updated_at datetime (　)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" t="e">
-        <f>C25&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3">
-        <v>23</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="3">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="3">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="3">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="3">
-        <v>32</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="3">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="3">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="3">
-        <v>35</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3">
-        <v>36</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="3">
-        <v>37</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="3">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368EE85C-D4CE-4CEB-B59A-93B45A41BFE3}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table hands (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>history_id int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">tile int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>dispose_num int ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F84F9-75F5-4644-8D66-EF2072BA8D9D}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table doras (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>history_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="3">
         <v>3</v>
@@ -6759,8 +6759,8 @@
         <v>111</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>revese int ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6786,9 +6786,9 @@
       <c r="J13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>revese int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6810,9 +6810,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>tile int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12">

--- a/doc/02_外部設計/02_DB定義書_国士無双.xlsx
+++ b/doc/02_外部設計/02_DB定義書_国士無双.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/miyashita-ryusuke-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1016" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0FC879F-EC69-426F-AA72-E063AC6FE73C}"/>
+  <xr:revisionPtr revIDLastSave="1119" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B501210-5D68-4ABC-AF75-3060C0626006}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="162">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -160,7 +160,7 @@
     <t>対戦相手</t>
   </si>
   <si>
-    <t>opponent</t>
+    <t>opponents</t>
   </si>
   <si>
     <t>対局履歴の詳細</t>
@@ -184,7 +184,7 @@
     <t>手役</t>
   </si>
   <si>
-    <t>teyaku</t>
+    <t>teyakus</t>
   </si>
   <si>
     <t>フレンドデータ</t>
@@ -196,7 +196,7 @@
     <t>マイページデータ</t>
   </si>
   <si>
-    <t>mypage</t>
+    <t>mypages</t>
   </si>
   <si>
     <t>牌一覧</t>
@@ -306,7 +306,7 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>datetime</t>
+    <t>timestamp</t>
   </si>
   <si>
     <t>　</t>
@@ -364,10 +364,16 @@
     <t>ユーザーの点数</t>
   </si>
   <si>
-    <t>対戦相手のテーブルと接続</t>
-  </si>
-  <si>
-    <t>opponents</t>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>opponents_id</t>
+  </si>
+  <si>
+    <t>対戦相手のテーブルと外部接続</t>
   </si>
   <si>
     <t>履歴番号</t>
@@ -379,6 +385,12 @@
     <t>対戦履歴のID</t>
   </si>
   <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>対戦履歴詳細</t>
   </si>
   <si>
@@ -457,6 +469,9 @@
     <t>uradoras</t>
   </si>
   <si>
+    <t>teyaku</t>
+  </si>
+  <si>
     <t>手役テーブルと接続</t>
   </si>
   <si>
@@ -484,7 +499,7 @@
     <t>dispose_num</t>
   </si>
   <si>
-    <t>捨てた手順を記録、捨ててない場合は0</t>
+    <t>捨てた巡目を記録、捨ててない場合は0</t>
   </si>
   <si>
     <t>裏表</t>
@@ -496,16 +511,13 @@
     <t>0 = 表 1 = 裏</t>
   </si>
   <si>
-    <t>complete_hand</t>
-  </si>
-  <si>
     <t>ＩＤ</t>
   </si>
   <si>
     <t>フレンド氏名</t>
   </si>
   <si>
-    <t xml:space="preserve">friends_name </t>
+    <t xml:space="preserve">friend_name </t>
   </si>
   <si>
     <t>ひとこと</t>
@@ -532,6 +544,15 @@
     <t>count_yaku</t>
   </si>
   <si>
+    <t>プロフィール画像</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>画像を選択</t>
+  </si>
+  <si>
     <t>最終ログイン</t>
   </si>
   <si>
@@ -544,19 +565,7 @@
     <t>マイページ</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>編集しなければ「よろしくお願いします。」と表記する</t>
-  </si>
-  <si>
-    <t>CURRNET_TIMEATAMP</t>
-  </si>
-  <si>
-    <t>内容を編集した際にinsertして変更させる</t>
   </si>
   <si>
     <t>最後にログインした日時を表示させる</t>
@@ -650,6 +659,7 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -754,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,16 +792,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1550,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1589,7 +1602,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1641,7 +1654,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table mypage (</v>
+        <v>create table mypages (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1709,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -1737,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -1753,7 +1766,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1765,10 +1778,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -1791,10 +1804,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -1817,10 +1830,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -1843,29 +1856,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>datetime varchar (20),</v>
+        <v>image int ,</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1873,13 +1882,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -1891,11 +1900,11 @@
         <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>last_login varchar (20),</v>
+        <v>last_login timestamp (20),</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1929,7 +1938,7 @@
       <c r="J19" s="10"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1942,7 +1951,7 @@
       <c r="C20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -1963,7 +1972,7 @@
       <c r="J20" s="12"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2144,7 +2153,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2274,7 +2283,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2286,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2314,10 +2323,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2330,7 +2339,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2342,10 +2351,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -2358,7 +2367,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2396,7 +2405,7 @@
       <c r="J14" s="10"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2409,7 +2418,7 @@
       <c r="C15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -2430,7 +2439,7 @@
       <c r="J15" s="12"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2699,7 +2708,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2909,7 +2918,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3039,7 +3048,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3051,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -3079,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -3095,7 +3104,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3133,7 +3142,7 @@
       <c r="J13" s="10"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3167,7 +3176,7 @@
       <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3456,7 +3465,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3682,7 +3691,7 @@
       <c r="J13" s="10"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3695,7 +3704,7 @@
       <c r="C14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -3716,7 +3725,7 @@
       <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4005,7 +4014,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4164,8 +4173,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>match_day date ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4192,8 +4201,8 @@
         <v>72</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rank int ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>match_day date ,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4253,13 +4262,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>61</v>
@@ -4279,101 +4288,117 @@
       <c r="J15" s="10"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>people int (　),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="10"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at datetime (　)</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ,</v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>updated_at timestamp (　),</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">opponent  </v>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">opponents_id  </v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -4571,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9380FFB3-254D-46DB-9535-CFAAF285D1FA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4636,7 +4661,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -4703,7 +4728,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -4729,8 +4754,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4738,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -4754,10 +4779,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>history_id int ,</v>
       </c>
     </row>
@@ -4765,24 +4790,26 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rank int ,</v>
+        <v>name varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4790,10 +4817,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -4806,93 +4833,99 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>point int ,</v>
+        <v>rank int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="10"/>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>point int ,</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="10"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="12"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -4909,7 +4942,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5126,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D6E869-91C4-4674-B10F-74CB7FE8747F}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5179,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -5295,10 +5328,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -5311,7 +5344,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5323,10 +5356,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -5337,7 +5370,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5349,10 +5382,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -5363,7 +5396,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5375,10 +5408,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -5389,7 +5422,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5401,10 +5434,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -5415,7 +5448,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -5451,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>49</v>
@@ -5475,10 +5508,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>49</v>
@@ -5499,10 +5532,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>49</v>
@@ -5513,7 +5546,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -5525,10 +5558,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>49</v>
@@ -5539,7 +5572,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
@@ -5577,7 +5610,7 @@
       <c r="J22" s="10"/>
       <c r="L22" t="str">
         <f t="shared" ref="L22:L23" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5590,7 +5623,7 @@
       <c r="C23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -5611,7 +5644,7 @@
       <c r="J23" s="12"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5649,11 +5682,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" t="e">
-        <f>C25&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>110</v>
+      </c>
+      <c r="L25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v>hands  ,</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5673,11 +5706,11 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>111</v>
+      </c>
+      <c r="L26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v>doras  ,</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5685,10 +5718,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -5697,11 +5730,11 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>111</v>
+      </c>
+      <c r="L27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v>uradoras  ,</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5712,7 +5745,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -5721,11 +5754,11 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>115</v>
+      </c>
+      <c r="L28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">teyaku  </v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -6009,7 +6042,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6140,8 +6173,8 @@
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6166,8 +6199,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6175,10 +6208,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -6191,7 +6224,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6203,10 +6236,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -6227,10 +6260,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -6241,7 +6274,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6253,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -6267,7 +6300,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6305,7 +6338,7 @@
       <c r="J16" s="10"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6318,7 +6351,7 @@
       <c r="C17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -6339,7 +6372,7 @@
       <c r="J17" s="12"/>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6573,8 +6606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F84F9-75F5-4644-8D66-EF2072BA8D9D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6740,10 +6773,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -6755,8 +6788,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="7" t="s">
-        <v>111</v>
+      <c r="J12" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6768,10 +6801,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -6784,7 +6817,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6796,10 +6829,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -6845,8 +6878,8 @@
       </c>
       <c r="J15" s="10"/>
       <c r="L15" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>history_id int ,</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6859,7 +6892,7 @@
       <c r="C16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -6878,9 +6911,9 @@
         <v>62</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="L16" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6896,9 +6929,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6914,9 +6947,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6932,9 +6965,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7133,7 +7166,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7197,7 +7230,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -7237,7 +7270,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table complete_hand (</v>
+        <v>create table teyakus (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7245,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -7301,10 +7334,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -7317,11 +7350,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>116</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>history_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7332,7 +7365,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -7343,9 +7376,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>teyaku int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7379,7 +7412,7 @@
       <c r="J14" s="10"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at datetime (　),</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7392,7 +7425,7 @@
       <c r="C15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -7413,7 +7446,7 @@
       <c r="J15" s="12"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>updated_at datetime (　)</v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7447,9 +7480,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7465,9 +7498,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7683,8 +7716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214AB03A-2473-41EC-8664-2F57C3D47987}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7856,10 +7889,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -7876,7 +7909,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>friends_name  varchar (100),</v>
+        <v>friend_name  varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7884,10 +7917,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -7910,10 +7943,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -7936,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -7962,10 +7995,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -7988,115 +8021,123 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>last_login varchar (20),</v>
+        <v>image int ,</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>created_at datetime (　),</v>
+        <v>last_login varchar (20),</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="E19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="10"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>updated_at datetime (　)</v>
+        <v>created_at timestamp (　),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="12"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>updated_at timestamp (　)</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -8273,9 +8314,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8423,16 +8467,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C090CBF-FDD3-4107-B18F-394243170AB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D311DA63-9240-4A6E-B8A9-57F6DCF63387}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8440,5 +8481,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D311DA63-9240-4A6E-B8A9-57F6DCF63387}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C090CBF-FDD3-4107-B18F-394243170AB7}"/>
 </file>
--- a/doc/02_外部設計/02_DB定義書_国士無双.xlsx
+++ b/doc/02_外部設計/02_DB定義書_国士無双.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/miyashita-ryusuke-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1349" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BD75F8B-FE82-4D53-8305-C1C719CA0E51}"/>
+  <xr:revisionPtr revIDLastSave="1357" documentId="8_{043A97CA-9019-4420-9ECC-C59B762B97A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18DA6EE1-EC03-46B2-A589-A999A2378CDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="177">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -382,15 +382,6 @@
     <t>tableの内容 id,ユーザーid,対戦日,順位、点数、人数、[氏名、順位、点数]を3人分</t>
   </si>
   <si>
-    <t>対戦相手のテーブルと内部結合</t>
-  </si>
-  <si>
-    <t>接続内容：一覧では名前と順位</t>
-  </si>
-  <si>
-    <t>詳細では履歴番号、名前、順位、点数、作成日時を入手する。</t>
-  </si>
-  <si>
     <t>氏名</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>木村</t>
   </si>
   <si>
-    <t>履歴詳細ID</t>
-  </si>
-  <si>
     <t>履歴番号</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>opponentsの履歴番号とhistorysのIDを接続させる。</t>
   </si>
   <si>
-    <t>historysの対戦相手氏名、順位、作成日時とopponentsの氏名、順位、作成日時が接続されている。</t>
-  </si>
-  <si>
     <t>対戦履歴詳細</t>
   </si>
   <si>
@@ -493,7 +478,7 @@
     <t>0=表記なし 1=満貫 2=跳満 3＝倍満 4=3倍満 5=役満 ６＝2倍役満~</t>
   </si>
   <si>
-    <t>内部接続</t>
+    <t>内部結合</t>
   </si>
   <si>
     <t>対戦履歴詳細のＩＤを手牌のＩＤと接続させる。</t>
@@ -1753,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1873,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -1901,10 +1886,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -1917,7 +1902,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1929,10 +1914,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -1955,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -1981,10 +1966,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -2007,10 +1992,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>49</v>
@@ -2021,7 +2006,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2033,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>60</v>
@@ -2051,7 +2036,7 @@
         <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -2303,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A55766-69A6-441D-9E69-811DE2D53FCC}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2434,7 +2419,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2446,10 +2431,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -2474,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -2490,7 +2475,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2502,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -2518,7 +2503,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2597,9 +2582,7 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2861,7 +2844,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="L30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3070,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6446FD-EBCB-4357-A913-0B826C9473A0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3201,7 +3184,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3213,10 +3196,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>54</v>
@@ -3241,10 +3224,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -3257,7 +3240,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4164,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF40A949-E2FD-4781-A351-FEB3DE793463}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4749,9 +4732,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>85</v>
-      </c>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="23"/>
@@ -4762,9 +4743,7 @@
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="23"/>
@@ -4775,9 +4754,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="J37" s="23"/>
     </row>
     <row r="50" spans="3:17">
       <c r="C50" s="3" t="s">
@@ -4799,7 +4776,7 @@
         <v>79</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>73</v>
@@ -4808,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M50" s="24" t="s">
         <v>73</v>
@@ -4817,7 +4794,7 @@
         <v>76</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P50" s="24" t="s">
         <v>73</v>
@@ -4846,13 +4823,13 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="3:17">
@@ -4875,13 +4852,13 @@
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="3:17">
@@ -4904,13 +4881,13 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="3:17">
@@ -4933,13 +4910,13 @@
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="3:17">
@@ -4962,13 +4939,13 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="3:17">
@@ -4991,13 +4968,13 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="3:17">
@@ -5020,87 +4997,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17">
-      <c r="C59" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="3:17">
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17">
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17">
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17">
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="3:17">
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67">
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5113,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9380FFB3-254D-46DB-9535-CFAAF285D1FA}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5280,10 +5177,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -5296,7 +5193,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5308,10 +5205,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>54</v>
@@ -5677,12 +5574,7 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="E32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -5692,13 +5584,13 @@
       <c r="C36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="24" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -5716,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -5730,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -5744,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -5758,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -5772,7 +5664,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -5786,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -5800,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -5814,7 +5706,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -5828,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -5842,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -5856,7 +5748,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -5870,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -5884,7 +5776,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -5898,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -5912,7 +5804,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -5926,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -5940,7 +5832,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -5954,7 +5846,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +5860,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6020,7 +5912,7 @@
         <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -6136,10 +6028,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -6152,7 +6044,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6164,10 +6056,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -6178,7 +6070,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6190,10 +6082,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -6204,7 +6096,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6216,10 +6108,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -6230,7 +6122,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6242,10 +6134,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>49</v>
@@ -6256,7 +6148,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -6292,10 +6184,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>49</v>
@@ -6316,10 +6208,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>49</v>
@@ -6340,10 +6232,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>49</v>
@@ -6354,7 +6246,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -6366,10 +6258,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>49</v>
@@ -6380,7 +6272,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
@@ -6565,7 +6457,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6576,7 +6468,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s">
         <v>47</v>
@@ -6590,20 +6482,20 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -6614,34 +6506,34 @@
         <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s">
         <v>76</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" t="s">
         <v>114</v>
-      </c>
-      <c r="L40" t="s">
-        <v>129</v>
-      </c>
-      <c r="M40" t="s">
-        <v>119</v>
       </c>
       <c r="N40" t="s">
         <v>24</v>
@@ -6650,7 +6542,7 @@
         <v>26</v>
       </c>
       <c r="P40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6830,10 +6722,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -6846,7 +6738,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6858,10 +6750,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -6882,10 +6774,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -6896,7 +6788,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6908,10 +6800,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -6922,7 +6814,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -7220,13 +7112,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7406,10 +7298,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -7422,7 +7314,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7434,10 +7326,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -7450,7 +7342,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7462,10 +7354,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -7790,13 +7682,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7809,7 +7701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3E3A8-8F92-40B0-8F15-D584C1D1CB78}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -7922,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -7978,10 +7870,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>49</v>
@@ -7994,7 +7886,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -8009,7 +7901,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -8352,13 +8244,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -8371,7 +8263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214AB03A-2473-41EC-8664-2F57C3D47987}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8544,10 +8436,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>54</v>
@@ -8572,10 +8464,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -8598,10 +8490,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -8624,10 +8516,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>54</v>
@@ -8650,10 +8542,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>54</v>
@@ -8676,10 +8568,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>49</v>
@@ -8690,7 +8582,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -8702,10 +8594,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -8720,7 +8612,7 @@
         <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
